--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H2">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.0031231635129</v>
+        <v>27.493006</v>
       </c>
       <c r="N2">
-        <v>13.0031231635129</v>
+        <v>82.479018</v>
       </c>
       <c r="O2">
-        <v>0.4594265848491898</v>
+        <v>0.6421229928833972</v>
       </c>
       <c r="P2">
-        <v>0.4594265848491898</v>
+        <v>0.6421229928833972</v>
       </c>
       <c r="Q2">
-        <v>137.5993471599253</v>
+        <v>377.7305058918939</v>
       </c>
       <c r="R2">
-        <v>137.5993471599253</v>
+        <v>3399.574553027046</v>
       </c>
       <c r="S2">
-        <v>0.2547935554078009</v>
+        <v>0.3936241701940564</v>
       </c>
       <c r="T2">
-        <v>0.2547935554078009</v>
+        <v>0.3936241701940564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H3">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.70512502784776</v>
+        <v>1.708541</v>
       </c>
       <c r="N3">
-        <v>1.70512502784776</v>
+        <v>5.125623</v>
       </c>
       <c r="O3">
-        <v>0.06024550859313246</v>
+        <v>0.03990445644190354</v>
       </c>
       <c r="P3">
-        <v>0.06024550859313246</v>
+        <v>0.03990445644190353</v>
       </c>
       <c r="Q3">
-        <v>18.04367210150425</v>
+        <v>23.473899371609</v>
       </c>
       <c r="R3">
-        <v>18.04367210150425</v>
+        <v>211.265094344481</v>
       </c>
       <c r="S3">
-        <v>0.03341157834136709</v>
+        <v>0.02446160428465055</v>
       </c>
       <c r="T3">
-        <v>0.03341157834136709</v>
+        <v>0.02446160428465055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H4">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.5946920222129</v>
+        <v>13.61424733333333</v>
       </c>
       <c r="N4">
-        <v>13.5946920222129</v>
+        <v>40.842742</v>
       </c>
       <c r="O4">
-        <v>0.4803279065576777</v>
+        <v>0.3179725506746993</v>
       </c>
       <c r="P4">
-        <v>0.4803279065576777</v>
+        <v>0.3179725506746992</v>
       </c>
       <c r="Q4">
-        <v>143.8593423728963</v>
+        <v>187.0481726355193</v>
       </c>
       <c r="R4">
-        <v>143.8593423728963</v>
+        <v>1683.433553719674</v>
       </c>
       <c r="S4">
-        <v>0.2663852269532689</v>
+        <v>0.1949185479899862</v>
       </c>
       <c r="T4">
-        <v>0.2663852269532689</v>
+        <v>0.1949185479899862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H5">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.0031231635129</v>
+        <v>27.493006</v>
       </c>
       <c r="N5">
-        <v>13.0031231635129</v>
+        <v>82.479018</v>
       </c>
       <c r="O5">
-        <v>0.4594265848491898</v>
+        <v>0.6421229928833972</v>
       </c>
       <c r="P5">
-        <v>0.4594265848491898</v>
+        <v>0.6421229928833972</v>
       </c>
       <c r="Q5">
-        <v>50.46804338830898</v>
+        <v>110.9077942808866</v>
       </c>
       <c r="R5">
-        <v>50.46804338830898</v>
+        <v>998.1701485279799</v>
       </c>
       <c r="S5">
-        <v>0.09345198560017194</v>
+        <v>0.1155744315349563</v>
       </c>
       <c r="T5">
-        <v>0.09345198560017194</v>
+        <v>0.1155744315349563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H6">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.70512502784776</v>
+        <v>1.708541</v>
       </c>
       <c r="N6">
-        <v>1.70512502784776</v>
+        <v>5.125623</v>
       </c>
       <c r="O6">
-        <v>0.06024550859313246</v>
+        <v>0.03990445644190354</v>
       </c>
       <c r="P6">
-        <v>0.06024550859313246</v>
+        <v>0.03990445644190353</v>
       </c>
       <c r="Q6">
-        <v>6.617973451899847</v>
+        <v>6.892317040503333</v>
       </c>
       <c r="R6">
-        <v>6.617973451899847</v>
+        <v>62.03085336453</v>
       </c>
       <c r="S6">
-        <v>0.01225454204694872</v>
+        <v>0.007182323199913675</v>
       </c>
       <c r="T6">
-        <v>0.01225454204694872</v>
+        <v>0.007182323199913673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H7">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.5946920222129</v>
+        <v>13.61424733333333</v>
       </c>
       <c r="N7">
-        <v>13.5946920222129</v>
+        <v>40.842742</v>
       </c>
       <c r="O7">
-        <v>0.4803279065576777</v>
+        <v>0.3179725506746993</v>
       </c>
       <c r="P7">
-        <v>0.4803279065576777</v>
+        <v>0.3179725506746992</v>
       </c>
       <c r="Q7">
-        <v>52.76405508123971</v>
+        <v>54.92037293173555</v>
       </c>
       <c r="R7">
-        <v>52.76405508123971</v>
+        <v>494.28335638562</v>
       </c>
       <c r="S7">
-        <v>0.09770352453966834</v>
+        <v>0.05723124260498453</v>
       </c>
       <c r="T7">
-        <v>0.09770352453966834</v>
+        <v>0.05723124260498452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H8">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.0031231635129</v>
+        <v>27.493006</v>
       </c>
       <c r="N8">
-        <v>13.0031231635129</v>
+        <v>82.479018</v>
       </c>
       <c r="O8">
-        <v>0.4594265848491898</v>
+        <v>0.6421229928833972</v>
       </c>
       <c r="P8">
-        <v>0.4594265848491898</v>
+        <v>0.6421229928833972</v>
       </c>
       <c r="Q8">
-        <v>60.04248822002234</v>
+        <v>127.5572013054086</v>
       </c>
       <c r="R8">
-        <v>60.04248822002234</v>
+        <v>1148.014811748678</v>
       </c>
       <c r="S8">
-        <v>0.111181043841217</v>
+        <v>0.1329243911543846</v>
       </c>
       <c r="T8">
-        <v>0.111181043841217</v>
+        <v>0.1329243911543846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H9">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.70512502784776</v>
+        <v>1.708541</v>
       </c>
       <c r="N9">
-        <v>1.70512502784776</v>
+        <v>5.125623</v>
       </c>
       <c r="O9">
-        <v>0.06024550859313246</v>
+        <v>0.03990445644190354</v>
       </c>
       <c r="P9">
-        <v>0.06024550859313246</v>
+        <v>0.03990445644190353</v>
       </c>
       <c r="Q9">
-        <v>7.873489169547757</v>
+        <v>7.926987259070333</v>
       </c>
       <c r="R9">
-        <v>7.873489169547757</v>
+        <v>71.342885331633</v>
       </c>
       <c r="S9">
-        <v>0.01457938820481665</v>
+        <v>0.008260528957339312</v>
       </c>
       <c r="T9">
-        <v>0.01457938820481665</v>
+        <v>0.00826052895733931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H10">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.5946920222129</v>
+        <v>13.61424733333333</v>
       </c>
       <c r="N10">
-        <v>13.5946920222129</v>
+        <v>40.842742</v>
       </c>
       <c r="O10">
-        <v>0.4803279065576777</v>
+        <v>0.3179725506746993</v>
       </c>
       <c r="P10">
-        <v>0.4803279065576777</v>
+        <v>0.3179725506746992</v>
       </c>
       <c r="Q10">
-        <v>62.77408322094448</v>
+        <v>63.16498413158688</v>
       </c>
       <c r="R10">
-        <v>62.77408322094448</v>
+        <v>568.484857184282</v>
       </c>
       <c r="S10">
-        <v>0.1162391550647405</v>
+        <v>0.06582276007972854</v>
       </c>
       <c r="T10">
-        <v>0.1162391550647405</v>
+        <v>0.06582276007972852</v>
       </c>
     </row>
   </sheetData>
